--- a/210_integration_ADRAM/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/210_integration_ADRAM/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T20:47:02+00:00</t>
+    <t>2025-01-23T19:08:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/210_integration_ADRAM/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/210_integration_ADRAM/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-23T19:08:18+00:00</t>
+    <t>2025-01-23T19:26:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/210_integration_ADRAM/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/210_integration_ADRAM/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-23T19:26:06+00:00</t>
+    <t>2025-01-23T19:42:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/210_integration_ADRAM/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/210_integration_ADRAM/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-23T19:42:58+00:00</t>
+    <t>2025-01-23T21:02:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/210_integration_ADRAM/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/210_integration_ADRAM/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-23T21:02:04+00:00</t>
+    <t>2025-01-23T21:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/210_integration_ADRAM/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/210_integration_ADRAM/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-23T21:29:27+00:00</t>
+    <t>2025-01-23T22:03:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
